--- a/temp/5_overall_integrity_check_pretranslation.xlsx
+++ b/temp/5_overall_integrity_check_pretranslation.xlsx
@@ -40,7 +40,7 @@
     <t>Node Acceptable?</t>
   </si>
   <si>
-    <t>512ad39b-23e3-4ae1-a1fe-6e3246fa9fe8</t>
+    <t>27671a0a-91c7-4fcd-a6c2-e980cda6bddc</t>
   </si>
   <si>
     <t>yes</t>
@@ -74,7 +74,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>cb2d6606-c9ce-49d4-bfdf-f23c9476ff09</t>
+    <t>a7f73f79-3a9d-44f8-87e0-536d742fb630</t>
   </si>
   <si>
     <t>back</t>
@@ -97,7 +97,7 @@
 </t>
   </si>
   <si>
-    <t>00cee0b1-c6d7-4391-b243-001c930c8486</t>
+    <t>03daa49a-f8bb-4dfd-a981-16e122919788</t>
   </si>
   <si>
     <t>next</t>
@@ -114,13 +114,13 @@
 </t>
   </si>
   <si>
-    <t>ee6bc8dc-3461-4f5f-b47d-efbed9601299</t>
-  </si>
-  <si>
-    <t>885785fb-5019-4019-b60f-f88da6ef7d5a</t>
-  </si>
-  <si>
-    <t>e7303995-218c-4cfb-9828-41447f55a313</t>
+    <t>71df8566-1ccb-4447-8a69-20e5974f5ad6</t>
+  </si>
+  <si>
+    <t>91cbc4e1-7b74-4612-a00a-35be9b2f86fe</t>
+  </si>
+  <si>
+    <t>3b054826-083d-456e-b808-01ddd3978c93</t>
   </si>
   <si>
     <t>exit,back</t>
@@ -139,424 +139,424 @@
 </t>
   </si>
   <si>
-    <t>d915e532-93d3-41be-90e9-c97c87c56978</t>
-  </si>
-  <si>
-    <t>51817425-a587-4c66-80f8-d30292c1d013</t>
-  </si>
-  <si>
-    <t>819b0c3a-fd51-4720-9b23-f22733f5a0e5</t>
-  </si>
-  <si>
-    <t>a96aa757-b3f4-4c48-a692-30b8538aad35</t>
-  </si>
-  <si>
-    <t>e4deef38-0e5b-4db4-af7b-08beb1d30222</t>
-  </si>
-  <si>
-    <t>70d7d012-86c1-40f8-8a5b-32b38509e6b9</t>
-  </si>
-  <si>
-    <t>d251562b-ff65-4c15-b256-bf11ee53baf1</t>
-  </si>
-  <si>
-    <t>0ffcd2a5-117c-4d2a-a040-a0fcf0f3a832</t>
-  </si>
-  <si>
-    <t>241d5eba-f6e5-49c9-bc64-fedf2059ed1b</t>
-  </si>
-  <si>
-    <t>72305034-1da9-4df9-9ee3-85207be78ba8</t>
-  </si>
-  <si>
-    <t>7be3b108-8235-453c-8a0e-9156a2d71b87</t>
-  </si>
-  <si>
-    <t>cd2dc5b0-1e49-43f6-9282-201275959f44</t>
-  </si>
-  <si>
-    <t>127e67cc-804b-45a6-9bb0-b5399badae61</t>
-  </si>
-  <si>
-    <t>8b857c80-f273-4a34-bb75-70b823d72d2e</t>
-  </si>
-  <si>
-    <t>00536ff7-6abf-4d74-9bbb-efc0bb1fa27e</t>
-  </si>
-  <si>
-    <t>2550fdfe-0ffd-44d8-885c-e392c18a5ba7</t>
-  </si>
-  <si>
-    <t>a87d544f-322c-4a7b-9f8a-04eb691f8c37</t>
-  </si>
-  <si>
-    <t>17e77e4b-876a-4f05-82a7-fda4a9faa131</t>
-  </si>
-  <si>
-    <t>586c5a75-2fc4-4e87-902b-dd288a814a06</t>
-  </si>
-  <si>
-    <t>68ada87e-231a-4191-b913-55a7cfbcc7fd</t>
-  </si>
-  <si>
-    <t>be82ad54-75af-4fe8-a46b-77dd1c8d2dc8</t>
-  </si>
-  <si>
-    <t>94a24173-88b2-4ff1-b350-303f7313fece</t>
-  </si>
-  <si>
-    <t>d3507643-6369-4e04-a2c6-efb6b5edf26c</t>
-  </si>
-  <si>
-    <t>e1f19c3d-ba54-4211-bb86-0e0bf33df080</t>
-  </si>
-  <si>
-    <t>cae85425-5a05-4b0c-af2d-ac95c7d55c67</t>
-  </si>
-  <si>
-    <t>7e5317ba-c044-4ef0-b4ac-8f81242ca76b</t>
-  </si>
-  <si>
-    <t>8827217c-9728-4ab5-96fe-49dda0c41ee6</t>
-  </si>
-  <si>
-    <t>aaab1985-b3fa-47ca-a5c1-7c1ff478a4fa</t>
-  </si>
-  <si>
-    <t>2fb99474-6cf7-45ad-be4e-bc7618b225c8</t>
-  </si>
-  <si>
-    <t>21aba1b0-076b-40a0-8640-1d0cae41b9f3</t>
-  </si>
-  <si>
-    <t>7ec28a5f-6301-4320-8030-6f3e60dda5d7</t>
-  </si>
-  <si>
-    <t>ff01d365-fdcd-4db3-bf49-215906fd4f43</t>
-  </si>
-  <si>
-    <t>58874376-962c-4c16-a294-815a462599c6</t>
-  </si>
-  <si>
-    <t>7a4e90e1-6cbc-4030-862b-da6e4d2e1dfe</t>
-  </si>
-  <si>
-    <t>f128dd61-aadf-4973-b9d3-95f05efcd8f7</t>
-  </si>
-  <si>
-    <t>ce77d1e9-d56d-4921-a7e3-b78eaf2978ea</t>
-  </si>
-  <si>
-    <t>767ad024-9a44-4263-8ceb-7b863e201eb0</t>
-  </si>
-  <si>
-    <t>0f4e5918-a95a-4f30-8802-d36d0cdae419</t>
-  </si>
-  <si>
-    <t>53e588e5-ffba-4023-8238-334f90bb9eab</t>
-  </si>
-  <si>
-    <t>6798ce49-f642-4ef3-956a-57235b4d76dd</t>
-  </si>
-  <si>
-    <t>81db4e6b-16fa-41ee-a65a-29c834846413</t>
-  </si>
-  <si>
-    <t>b34f0a4c-d167-4b99-8348-a04b95493189</t>
-  </si>
-  <si>
-    <t>2af0e029-bba2-4c78-8234-79e4755724b8</t>
-  </si>
-  <si>
-    <t>99fc2800-8d03-49d7-bea5-74807f628660</t>
-  </si>
-  <si>
-    <t>00a39002-23f2-4da3-a7c2-84498e0f3f12</t>
-  </si>
-  <si>
-    <t>06efc93b-87f4-465e-8b1a-ef89762240b0</t>
-  </si>
-  <si>
-    <t>869329aa-2a8a-484d-9e8f-d554b06b0421</t>
-  </si>
-  <si>
-    <t>4b26cdf1-16f3-4a5d-985c-4eb0bee18737</t>
-  </si>
-  <si>
-    <t>0187b58d-ad74-4d5a-8360-12ba015d6ff3</t>
-  </si>
-  <si>
-    <t>849dda6c-8111-4a20-8129-dddb95176420</t>
-  </si>
-  <si>
-    <t>8bc445c0-e3fe-4d17-b58b-248c243501c6</t>
-  </si>
-  <si>
-    <t>3d2cf383-a557-430b-aa27-002832703360</t>
-  </si>
-  <si>
-    <t>91bb532b-066a-4069-a812-d7799174f5ff</t>
-  </si>
-  <si>
-    <t>98a8b6c1-3ca9-4a7b-bb5d-2815d1ea37f0</t>
-  </si>
-  <si>
-    <t>17edc40c-bb10-43be-8e1e-42a8f6cec09f</t>
-  </si>
-  <si>
-    <t>88ed2a13-8e44-4f5f-8d94-9d350ce595af</t>
-  </si>
-  <si>
-    <t>b5e3a0b8-54d7-4f73-a16c-3701734f8114</t>
-  </si>
-  <si>
-    <t>1cac284f-a9ef-45eb-aabe-76c846086cfe</t>
-  </si>
-  <si>
-    <t>5d98cab5-4ae7-46f8-af2f-7adaa0fb74f0</t>
-  </si>
-  <si>
-    <t>97a34acb-e26c-427f-a049-c6db7005d8fa</t>
-  </si>
-  <si>
-    <t>0077da5f-62d5-4c01-a2a8-bc9c371a00ee</t>
-  </si>
-  <si>
-    <t>8001c285-a27a-4ebd-bc2c-7c3b3a059623</t>
-  </si>
-  <si>
-    <t>afca6f40-827d-4663-bf3a-5b85878bb592</t>
-  </si>
-  <si>
-    <t>e0002e4e-cbcd-499a-87ab-623703b2620b</t>
-  </si>
-  <si>
-    <t>bf518e21-1073-4527-bd16-234bc6648ded</t>
-  </si>
-  <si>
-    <t>dc157bc0-9c51-4913-991c-227dbbab4ccf</t>
-  </si>
-  <si>
-    <t>74f0bcdf-2bfc-42a6-81a1-c4570df9f8d1</t>
-  </si>
-  <si>
-    <t>4979e8dc-d994-457a-930e-b5b5368d8b38</t>
-  </si>
-  <si>
-    <t>68b30c50-7b85-48e6-a155-8238aaa567ed</t>
-  </si>
-  <si>
-    <t>8083ad8e-c726-4a22-9ae5-f244de7f8c99</t>
-  </si>
-  <si>
-    <t>a57e4bef-187d-4f64-a66f-12297bb419e2</t>
-  </si>
-  <si>
-    <t>eb1b6dca-dcee-4328-a879-c57c33c92d4c</t>
-  </si>
-  <si>
-    <t>193b0597-778b-4a64-a897-e1c2cb011dc3</t>
-  </si>
-  <si>
-    <t>1ac39dd3-a391-4491-963a-88e800a11ad9</t>
-  </si>
-  <si>
-    <t>44fc00d2-6926-41e5-bafb-6ad37f3d96cd</t>
-  </si>
-  <si>
-    <t>1145eec4-3c5f-496c-bb7e-a2f77c7d3a07</t>
-  </si>
-  <si>
-    <t>73b6a6c6-ed8f-4121-b60c-5395c2a0da7a</t>
-  </si>
-  <si>
-    <t>eb9a8658-aac1-4cbb-bdf6-4b1d04634e5d</t>
-  </si>
-  <si>
-    <t>1e7484bb-cc53-4460-aead-e64f87af57c9</t>
-  </si>
-  <si>
-    <t>3ef735b7-b020-4ced-a1fa-f19bda07e3e1</t>
-  </si>
-  <si>
-    <t>c3a35095-1f8e-40ee-bc2d-c63e809df83b</t>
-  </si>
-  <si>
-    <t>8421bc2a-9ca3-4a8e-9003-9310ffd51641</t>
-  </si>
-  <si>
-    <t>e72fbded-767e-47da-b63e-0398af5afd05</t>
-  </si>
-  <si>
-    <t>05e71e65-400a-4714-a9be-f5b7b787cc2d</t>
-  </si>
-  <si>
-    <t>fa4a3ec5-a663-4686-9156-7c0dac94edeb</t>
-  </si>
-  <si>
-    <t>9beb65d4-62a5-4918-ac78-bcfde620cd00</t>
-  </si>
-  <si>
-    <t>5cface07-977e-4084-a354-0ec5a580c566</t>
-  </si>
-  <si>
-    <t>05b6b619-32dd-4200-b78c-a961fe5d9d6e</t>
-  </si>
-  <si>
-    <t>f1f4694d-9c17-44b7-9512-d1516cb26e3b</t>
-  </si>
-  <si>
-    <t>6674c750-c7fc-4efb-a1f9-ca89b748b5d4</t>
-  </si>
-  <si>
-    <t>2ff0b5ee-e184-431d-8659-edde5772c1cb</t>
-  </si>
-  <si>
-    <t>729a1e1c-9024-4d14-b503-4d1db8035f94</t>
-  </si>
-  <si>
-    <t>ac28cf7b-bf69-4e34-ac45-75aca90fa3f7</t>
-  </si>
-  <si>
-    <t>9a4ced87-1f4f-4970-8202-d70fc41eb122</t>
-  </si>
-  <si>
-    <t>0a7fb4a7-177f-478d-a9ca-88c8d3d33652</t>
-  </si>
-  <si>
-    <t>9dd8629d-187f-42c4-9e19-8785138a443a</t>
-  </si>
-  <si>
-    <t>d1cb5bf3-432f-4307-a589-0574a5f1bc2c</t>
-  </si>
-  <si>
-    <t>f6b08c97-09ff-447e-90a7-86e376dd49f8</t>
-  </si>
-  <si>
-    <t>0c29e40a-05d2-47af-9d05-ca04afde103f</t>
-  </si>
-  <si>
-    <t>4c710dad-851f-4b4f-9a73-efd3e4e2226b</t>
-  </si>
-  <si>
-    <t>88c8550b-f400-4a21-9c94-ec0195775a87</t>
-  </si>
-  <si>
-    <t>2c89e275-c79e-4cec-b1cb-26284525e5f3</t>
-  </si>
-  <si>
-    <t>85f1d56c-b00f-4336-ba8f-894bf481ec9c</t>
-  </si>
-  <si>
-    <t>52350951-de20-47af-bd20-f9e11a012b4f</t>
-  </si>
-  <si>
-    <t>07573532-0e33-4d95-b16a-3e68bdd41479</t>
-  </si>
-  <si>
-    <t>ca406604-3d04-4e19-b5e3-50fb13b6c0f2</t>
-  </si>
-  <si>
-    <t>056b84ff-8584-4e59-b8a2-5d43c3afeef5</t>
-  </si>
-  <si>
-    <t>0edb14d8-d60d-41a6-b345-f592033fed12</t>
-  </si>
-  <si>
-    <t>2551ee67-f0bc-4a94-b55c-074f56328469</t>
-  </si>
-  <si>
-    <t>178917ef-5d90-42d7-87c3-f4c32b4e9213</t>
-  </si>
-  <si>
-    <t>2181e14a-f56c-4538-b7e2-466119fceb55</t>
-  </si>
-  <si>
-    <t>e34dc49a-54d4-48f2-ae5f-7bbd6b71e642</t>
-  </si>
-  <si>
-    <t>141952f8-e2dc-411c-a682-92c32d664397</t>
-  </si>
-  <si>
-    <t>58c5baa4-5b72-4da7-9662-e4650ce5f9a3</t>
-  </si>
-  <si>
-    <t>5e5311b1-2952-4e7f-8565-b8564eb6cee3</t>
-  </si>
-  <si>
-    <t>8e3a7457-b347-42e8-8336-1f0b14567ff5</t>
-  </si>
-  <si>
-    <t>ad7e87f3-1650-4de4-80af-3999a3f022b1</t>
-  </si>
-  <si>
-    <t>42f429a1-7ada-4765-b3ee-fa3b684c98be</t>
-  </si>
-  <si>
-    <t>6a766fa5-4aa0-4578-99d7-544ad9e57999</t>
-  </si>
-  <si>
-    <t>7c3554d7-283e-4f7a-87ed-4e458caf5b6b</t>
-  </si>
-  <si>
-    <t>e0cae751-ac1e-4f39-be1f-fedf54e66305</t>
-  </si>
-  <si>
-    <t>ea36948b-ea14-4357-8a1d-d11305704ed9</t>
-  </si>
-  <si>
-    <t>6b0541ac-53c6-497c-9ce2-a3b9601261b2</t>
-  </si>
-  <si>
-    <t>4740c4a2-7429-4737-a399-6ee425d0751b</t>
-  </si>
-  <si>
-    <t>3021e1bd-57e8-4183-98b7-05209d89441c</t>
-  </si>
-  <si>
-    <t>b10bc0d7-dcd4-42f4-af64-a55d0debaaac</t>
-  </si>
-  <si>
-    <t>03da989f-0070-478e-a2b3-8c60ad8d2de6</t>
-  </si>
-  <si>
-    <t>02a246ea-249e-48d9-be82-fea49c2a4739</t>
-  </si>
-  <si>
-    <t>67d76be2-7cfc-4aa6-aed2-1f58e7891772</t>
-  </si>
-  <si>
-    <t>964b0629-33b1-447f-90b3-d7641d2478e5</t>
-  </si>
-  <si>
-    <t>e2a1f2c9-d2ca-4f9b-b92e-f9705501ec38</t>
-  </si>
-  <si>
-    <t>76aa0141-28f7-4d05-84bd-cd9b3e29ba18</t>
-  </si>
-  <si>
-    <t>21953282-0562-4961-add8-4b3efbe47fca</t>
-  </si>
-  <si>
-    <t>1ebb76c1-1b97-4a5a-a801-4d72dba893e5</t>
-  </si>
-  <si>
-    <t>9abb603c-cc7c-42b1-94d4-0dc2d342f964</t>
-  </si>
-  <si>
-    <t>1fd921de-0686-43a6-a499-765304f6a360</t>
-  </si>
-  <si>
-    <t>10ea3426-9be5-4000-bcfe-6d8e45f82eef</t>
-  </si>
-  <si>
-    <t>463e6a94-ec6c-4342-a4dd-57be75bf1dcb</t>
-  </si>
-  <si>
-    <t>a864c0fb-1920-409c-8cf2-75da597556a4</t>
-  </si>
-  <si>
-    <t>34b5a2fc-853f-4eb6-8057-c172fc9efe9b</t>
+    <t>98117c0f-1daf-4201-b143-b0e8f6d00b3b</t>
+  </si>
+  <si>
+    <t>c596f177-5d8b-48be-8d87-abedaef3435c</t>
+  </si>
+  <si>
+    <t>16a90a47-a587-4b21-ab52-091182abb5df</t>
+  </si>
+  <si>
+    <t>d1fd73fa-a990-40f5-a8ec-faac2c331a15</t>
+  </si>
+  <si>
+    <t>fda3792e-e71d-4c29-a360-0faef18c98ab</t>
+  </si>
+  <si>
+    <t>e525a12c-f4ae-4559-a454-b6d4bde179c6</t>
+  </si>
+  <si>
+    <t>f9479c65-c929-4627-b015-a5561bb242e5</t>
+  </si>
+  <si>
+    <t>377dea68-d280-4e68-b4f0-67448f37b131</t>
+  </si>
+  <si>
+    <t>222e2392-7f48-44cc-8d5f-b21b6f4019b4</t>
+  </si>
+  <si>
+    <t>965edc93-8ce9-449e-90d3-ad428af334ee</t>
+  </si>
+  <si>
+    <t>7bc0d198-2db1-4344-bc86-b3070eaa685c</t>
+  </si>
+  <si>
+    <t>689fe8a6-6f35-47a9-ba32-aeabe6428835</t>
+  </si>
+  <si>
+    <t>d38c2b6e-d1f7-43a4-bf08-0bbadac3630a</t>
+  </si>
+  <si>
+    <t>46b425c3-84a6-4f64-b4ea-d19768b8c7e6</t>
+  </si>
+  <si>
+    <t>b82dfae7-24ff-4c4a-9e84-be449b432acd</t>
+  </si>
+  <si>
+    <t>b1257a25-234f-4582-919f-d3595c6487fa</t>
+  </si>
+  <si>
+    <t>b4f50a89-1202-486f-9e48-d4199b4cef89</t>
+  </si>
+  <si>
+    <t>dfe283f2-0e4c-41fa-aeb7-2c44be8f3034</t>
+  </si>
+  <si>
+    <t>e0e233f0-f951-45df-9f2b-5f9fa93008cb</t>
+  </si>
+  <si>
+    <t>fe6e09fc-4668-43d1-a8d1-bddba2df4b79</t>
+  </si>
+  <si>
+    <t>6930ab15-4146-49d8-86e0-ac67c9f35e8f</t>
+  </si>
+  <si>
+    <t>71df3f60-1db9-4800-b7d5-85a2106c43f0</t>
+  </si>
+  <si>
+    <t>c60228ef-7fe8-4c2a-b755-0e99370c4103</t>
+  </si>
+  <si>
+    <t>aa041128-50f7-4ef3-bc5f-cb605bf7eae3</t>
+  </si>
+  <si>
+    <t>f35c7194-9e09-49e0-9183-a371240fe745</t>
+  </si>
+  <si>
+    <t>efb0c3c1-fbed-4f2e-8073-18ed4a9bebde</t>
+  </si>
+  <si>
+    <t>dba520e0-1919-4f04-9b82-e61addbd93d0</t>
+  </si>
+  <si>
+    <t>c25dee05-68db-42e3-ae44-58f7f7a8a45c</t>
+  </si>
+  <si>
+    <t>4fa857ab-99e8-4b2d-b17c-a64a66c19c46</t>
+  </si>
+  <si>
+    <t>4580ccf8-14ed-4c72-9429-58c5f8ba5a86</t>
+  </si>
+  <si>
+    <t>dd3d9426-e568-4744-a5be-fad160f0d0e7</t>
+  </si>
+  <si>
+    <t>33a0e2c0-e46a-486d-9d0a-c89d1f4afde8</t>
+  </si>
+  <si>
+    <t>5ae1974e-11c8-4ec2-b613-212ce6d5ce5e</t>
+  </si>
+  <si>
+    <t>2e22c706-938f-4f57-8a9c-86f3bc2affe6</t>
+  </si>
+  <si>
+    <t>5322d7d3-b2b4-42cf-b021-9b1c58b64474</t>
+  </si>
+  <si>
+    <t>f3e609c3-1250-4cf6-949e-c03e9dac285e</t>
+  </si>
+  <si>
+    <t>198cfea4-e7a7-4146-9ffe-54e7cc3a93a8</t>
+  </si>
+  <si>
+    <t>30041cba-e57d-4e58-9707-4f6a9bf64874</t>
+  </si>
+  <si>
+    <t>dd4dd52f-c42e-4662-af61-93edc8d06e2d</t>
+  </si>
+  <si>
+    <t>fee1e538-e519-47c6-8f88-adb4d9ba10c8</t>
+  </si>
+  <si>
+    <t>da248dfa-bd0d-4b7d-962a-e58833cff5bf</t>
+  </si>
+  <si>
+    <t>8279cbe9-a3ca-4ef5-b316-c475ea6ac203</t>
+  </si>
+  <si>
+    <t>845e2fbe-9806-4540-8454-f0ee7dafccf2</t>
+  </si>
+  <si>
+    <t>802994fb-d0e3-4669-8c64-0f22366af639</t>
+  </si>
+  <si>
+    <t>d7179ffb-7bd3-43cc-beb1-c654f1585338</t>
+  </si>
+  <si>
+    <t>33187684-9852-4af3-9c44-b49bffb80dde</t>
+  </si>
+  <si>
+    <t>a30650cd-146d-4dad-ae83-635eaf52da1c</t>
+  </si>
+  <si>
+    <t>ed4f9a31-7f3e-43bb-97ae-e6cffa87ad99</t>
+  </si>
+  <si>
+    <t>85d2b867-fac7-4cd6-b071-cd82695b6039</t>
+  </si>
+  <si>
+    <t>1bcef476-1a20-4fdf-9f1b-4a4305642e01</t>
+  </si>
+  <si>
+    <t>aae606a3-d882-4958-a2b1-4a14b11f5c3d</t>
+  </si>
+  <si>
+    <t>4ebd4df7-76dc-49ce-bba9-302e24c3e11f</t>
+  </si>
+  <si>
+    <t>578767d0-1a5c-41ba-9976-be9bca25906b</t>
+  </si>
+  <si>
+    <t>19506f72-b64e-4911-a738-01c959279820</t>
+  </si>
+  <si>
+    <t>56159cbe-9772-4129-b864-2c5bf94b06b4</t>
+  </si>
+  <si>
+    <t>819773ab-f13c-4bff-a419-579ebf2949d4</t>
+  </si>
+  <si>
+    <t>fb46fc50-8eb3-4e4d-8278-88ac1dbc891e</t>
+  </si>
+  <si>
+    <t>29728c0d-c008-4dd6-b41c-93d195e79604</t>
+  </si>
+  <si>
+    <t>41109ecb-6e17-47b0-9111-35e8b6ae5512</t>
+  </si>
+  <si>
+    <t>036d406a-f4af-4264-8dba-046df57b3476</t>
+  </si>
+  <si>
+    <t>7fb1f6b5-40c6-4cba-bbb5-4102a211c1cc</t>
+  </si>
+  <si>
+    <t>3270cecf-7194-4486-88d6-154c3098e68e</t>
+  </si>
+  <si>
+    <t>08e6415a-15e0-42a2-9785-46f5c4a6a414</t>
+  </si>
+  <si>
+    <t>7b3f39b8-d315-4084-9311-a500b1711217</t>
+  </si>
+  <si>
+    <t>5d2aba9a-2105-4974-bbea-0c58bc581fe6</t>
+  </si>
+  <si>
+    <t>f869b4d6-b7c3-4b4e-8743-afc098d363bf</t>
+  </si>
+  <si>
+    <t>c4e355a2-f6f9-4ce0-8565-6eec30a26178</t>
+  </si>
+  <si>
+    <t>dd616098-1bc4-4fd7-a1a7-367f6a4d85f8</t>
+  </si>
+  <si>
+    <t>0bdaf74a-ebe1-4ea9-a913-a8099b4d637a</t>
+  </si>
+  <si>
+    <t>b06ebb87-94e2-4a4d-b46a-d240511bf9aa</t>
+  </si>
+  <si>
+    <t>fb98dfc0-ae17-4d99-83da-b4482ded49aa</t>
+  </si>
+  <si>
+    <t>a02c255d-9b36-44a7-a3ec-801a40ccb262</t>
+  </si>
+  <si>
+    <t>22407afd-4c10-48ae-988d-467713a8486f</t>
+  </si>
+  <si>
+    <t>a2429da4-1e3e-4993-b84f-4be0aced08c3</t>
+  </si>
+  <si>
+    <t>575fb7e0-fdfb-403d-8d7b-a3424db06af4</t>
+  </si>
+  <si>
+    <t>f5d7677e-4fcb-4d57-b24d-608d22050405</t>
+  </si>
+  <si>
+    <t>55cbc293-99c0-4c7f-9b50-b5db1449bb44</t>
+  </si>
+  <si>
+    <t>8c2312e3-678e-45fe-ba6e-6af082a5914a</t>
+  </si>
+  <si>
+    <t>fc40a027-5c2a-4b83-9f7c-522f0dfb5ee1</t>
+  </si>
+  <si>
+    <t>ac952f16-dd6c-44bc-a8d3-e407f102cf64</t>
+  </si>
+  <si>
+    <t>41bf9af5-e2d0-41f7-83a8-8220f88d61b8</t>
+  </si>
+  <si>
+    <t>307d96a3-fd0c-493f-8863-e11171d4953c</t>
+  </si>
+  <si>
+    <t>40e4fd38-3fba-4427-9087-43907e50d42f</t>
+  </si>
+  <si>
+    <t>93bb0e4a-87fa-4a91-a86d-0f705f07f1ab</t>
+  </si>
+  <si>
+    <t>56c801f2-02d5-4209-b08f-8d9c90051c4b</t>
+  </si>
+  <si>
+    <t>416deb73-df83-42b2-9cc4-86d7d1c321c9</t>
+  </si>
+  <si>
+    <t>253986c9-cb84-4286-8e0d-751df78c4d98</t>
+  </si>
+  <si>
+    <t>81fc1332-3cd9-4610-9f08-538cf2d7de4c</t>
+  </si>
+  <si>
+    <t>a9f8621c-e7dc-4862-9fa3-5c39cb854759</t>
+  </si>
+  <si>
+    <t>c4730b54-c91b-4919-9518-425128437c9d</t>
+  </si>
+  <si>
+    <t>35ad46e8-282a-4600-8ec8-2aafcd71f20f</t>
+  </si>
+  <si>
+    <t>977c98cf-1033-45e6-a022-fe7e7d586944</t>
+  </si>
+  <si>
+    <t>5846e1b1-5cc9-47ca-a8ec-5acc26963bb8</t>
+  </si>
+  <si>
+    <t>b546fdcb-3f49-4303-a574-58321b248f55</t>
+  </si>
+  <si>
+    <t>7362b7d3-c951-48b1-a89f-583bfeb38c48</t>
+  </si>
+  <si>
+    <t>e18e0117-62ee-467b-aadd-8d0a9d1ba819</t>
+  </si>
+  <si>
+    <t>4ebffce5-b660-4d42-b952-3b409df2be43</t>
+  </si>
+  <si>
+    <t>f7a5690d-8460-4d4c-bd05-ebd38f27ab97</t>
+  </si>
+  <si>
+    <t>9a82e4e5-7d89-4675-a558-792d01d57d9f</t>
+  </si>
+  <si>
+    <t>26cb7021-316d-40c2-862e-d9ac5f28bef5</t>
+  </si>
+  <si>
+    <t>8759035b-903e-414c-833b-3e3fb52d1d11</t>
+  </si>
+  <si>
+    <t>4d599dd3-2cc3-43d6-aa9e-3391f8169dca</t>
+  </si>
+  <si>
+    <t>40de4fb5-dee7-4967-826f-47574dce7e0f</t>
+  </si>
+  <si>
+    <t>c735ffd9-d69b-4cd2-b10f-938cccf2ca0f</t>
+  </si>
+  <si>
+    <t>a988d6c3-7dcb-4211-92fa-cfb637fe6e66</t>
+  </si>
+  <si>
+    <t>7c1c5898-24f5-41c7-87f1-4c257a61f3d2</t>
+  </si>
+  <si>
+    <t>7439bb41-c1b8-4b12-83b3-5fb6eea1aaef</t>
+  </si>
+  <si>
+    <t>cbadc13c-f219-4026-a18d-bafca035714d</t>
+  </si>
+  <si>
+    <t>1bf2d20e-06c0-4d76-bdd5-1d3c521b94a1</t>
+  </si>
+  <si>
+    <t>e2267555-0a3a-459c-a09e-cf078ce0f262</t>
+  </si>
+  <si>
+    <t>a03ea432-24e5-4f08-b580-531a6148a601</t>
+  </si>
+  <si>
+    <t>b5b19e98-454b-496d-a755-442a996e70fd</t>
+  </si>
+  <si>
+    <t>5f6bce82-2091-481e-8e28-8b09d61b254c</t>
+  </si>
+  <si>
+    <t>863ce781-80ae-40f8-b8dd-775e007df58b</t>
+  </si>
+  <si>
+    <t>0ae684ab-aa58-4897-843f-18f312bbd2a7</t>
+  </si>
+  <si>
+    <t>93f7b582-dbfb-424c-9c27-ecdff67ba197</t>
+  </si>
+  <si>
+    <t>4a2f4919-1144-46c8-bc90-b422a6b310b2</t>
+  </si>
+  <si>
+    <t>5568a8ef-2fd6-497c-aee9-920bbdceec51</t>
+  </si>
+  <si>
+    <t>16d862da-8091-4193-abd3-ae6035de1ef1</t>
+  </si>
+  <si>
+    <t>af9636f6-1c1a-4e35-b62d-04c6469d08e5</t>
+  </si>
+  <si>
+    <t>772e8129-ee7e-4f80-8d0b-5713df68456a</t>
+  </si>
+  <si>
+    <t>e9e5fa74-2f9c-4e9b-8b7b-464ff5af1fa3</t>
+  </si>
+  <si>
+    <t>02c52b67-8c2a-4727-8d3d-95294b7106be</t>
+  </si>
+  <si>
+    <t>e7698b23-6a3d-42a9-a828-c1b3614e87c9</t>
+  </si>
+  <si>
+    <t>8edf155f-f1e3-420b-8799-f4848fcb6d83</t>
+  </si>
+  <si>
+    <t>95b51b07-6c16-4b38-9727-a88cf0c5dd7b</t>
+  </si>
+  <si>
+    <t>c119f999-d8ac-42f0-9dce-cf09121f67d6</t>
+  </si>
+  <si>
+    <t>d41a8e62-594d-40ce-a916-0db8b50e077b</t>
+  </si>
+  <si>
+    <t>c1213fb3-5947-4f41-897d-7de1b32a9dd0</t>
+  </si>
+  <si>
+    <t>a0ec9ce3-9dc6-40b0-9cc8-078cd9f665f4</t>
+  </si>
+  <si>
+    <t>0b82e37b-3ccc-4889-a09b-698b9fb2506c</t>
+  </si>
+  <si>
+    <t>43eb3968-74f6-4655-8060-ce40e266d70b</t>
+  </si>
+  <si>
+    <t>3e77f4df-770c-4333-8a93-ec568ced951e</t>
+  </si>
+  <si>
+    <t>a2a95d11-0049-4e38-b91a-239ac4dd6807</t>
+  </si>
+  <si>
+    <t>d1f86b8c-3789-4724-9636-5cebeaaecc31</t>
+  </si>
+  <si>
+    <t>d350154c-05fd-49df-a910-34b8a4eebe98</t>
+  </si>
+  <si>
+    <t>e76b0231-09f5-4075-8448-9c9e784304af</t>
+  </si>
+  <si>
+    <t>140f5022-f62c-4d7c-960f-ec6014ece9f4</t>
+  </si>
+  <si>
+    <t>8fc0279a-6139-4aaf-bdd3-e05017e579f5</t>
+  </si>
+  <si>
+    <t>8a61d4f0-9283-4e6a-8f47-1f3a9304d3b3</t>
   </si>
 </sst>
 </file>
